--- a/DATOS PRODUCTO 1X1.xlsx
+++ b/DATOS PRODUCTO 1X1.xlsx
@@ -20,7 +20,8 @@
     <sheet name="COVER_LIGHT" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLORESPRODUCTO!$A$1:$B$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">colorBeforeMod!$A$1:$B$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLORESPRODUCTO!$B$1:$C$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRODUCTOSUNO!$A$1:$F$132</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="138">
   <si>
     <t>tipoPresentacionProducto</t>
   </si>
@@ -411,13 +412,49 @@
   </si>
   <si>
     <t>ALGODÓN</t>
+  </si>
+  <si>
+    <t>tipoTela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOLITE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTUCO  </t>
+  </si>
+  <si>
+    <t>CAFÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREEN 20%    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREEN </t>
+  </si>
+  <si>
+    <t>COCOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUXURY </t>
+  </si>
+  <si>
+    <t>CHAMPAÑA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINYL PLUS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +466,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,10 +498,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,8 +791,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD85"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +800,7 @@
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
@@ -775,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -795,7 +845,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -835,7 +885,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -855,7 +905,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -875,7 +925,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -915,7 +965,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -935,7 +985,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -955,7 +1005,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -995,7 +1045,7 @@
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1135,7 +1185,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1275,7 +1325,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1415,7 +1465,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1535,7 +1585,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1655,7 +1705,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1775,7 +1825,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -2275,7 +2325,7 @@
         <v>154000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -2315,7 +2365,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2335,7 +2385,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -2375,7 +2425,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -2515,7 +2565,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -2655,7 +2705,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -2775,7 +2825,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -2895,7 +2945,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -3402,7 +3452,8 @@
   <autoFilter ref="A1:F132">
     <filterColumn colId="3">
       <filters>
-        <filter val="ESTUCO"/>
+        <filter val="VYNYL PLUS"/>
+        <filter val="VYNYL PLUS 3 M"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3413,12 +3464,1134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:C100"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3436,7 +4609,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -3444,7 +4617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3452,7 +4625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3460,7 +4633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3468,7 +4641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3476,7 +4649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3484,7 +4657,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3492,7 +4665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3500,7 +4673,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3508,7 +4681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +4689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3524,428 +4697,428 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
       <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
       <c r="B51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>28</v>
       </c>
       <c r="B54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
       <c r="B57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3953,7 +5126,7 @@
         <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3961,7 +5134,7 @@
         <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3969,7 +5142,7 @@
         <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3977,755 +5150,6 @@
         <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B89">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SCREEN 5%"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B92"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4909,6 +5333,7 @@
       <c r="B92" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B91"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DATOS PRODUCTO 1X1.xlsx
+++ b/DATOS PRODUCTO 1X1.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="4260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="4260"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTOSUNO" sheetId="1" r:id="rId1"/>
-    <sheet name="COLORESPRODUCTO" sheetId="2" r:id="rId2"/>
-    <sheet name="colorBeforeMod" sheetId="6" r:id="rId3"/>
-    <sheet name="MOTOR" sheetId="3" r:id="rId4"/>
-    <sheet name="PERFIL" sheetId="4" r:id="rId5"/>
-    <sheet name="COVER_LIGHT" sheetId="5" r:id="rId6"/>
+    <sheet name="COLORACCESORIOS" sheetId="7" r:id="rId2"/>
+    <sheet name="COLORESPRODUCTO" sheetId="2" r:id="rId3"/>
+    <sheet name="colorBeforeMod" sheetId="6" r:id="rId4"/>
+    <sheet name="MOTOR" sheetId="3" r:id="rId5"/>
+    <sheet name="PERFIL" sheetId="4" r:id="rId6"/>
+    <sheet name="COVER_LIGHT" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">colorBeforeMod!$A$1:$B$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COLORESPRODUCTO!$B$1:$C$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">colorBeforeMod!$A$1:$B$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">COLORESPRODUCTO!$A$1:$C$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRODUCTOSUNO!$A$1:$F$132</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="142">
   <si>
     <t>tipoPresentacionProducto</t>
   </si>
@@ -423,9 +424,6 @@
     <t xml:space="preserve">ESTUCO  </t>
   </si>
   <si>
-    <t>CAFÉ</t>
-  </si>
-  <si>
     <t xml:space="preserve">SCREEN 20%    </t>
   </si>
   <si>
@@ -441,13 +439,28 @@
     <t xml:space="preserve">LUXURY </t>
   </si>
   <si>
-    <t>CHAMPAÑA</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SCREEN</t>
   </si>
   <si>
-    <t xml:space="preserve">VINYL PLUS </t>
+    <t>ALGODON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VYNYL PLUS </t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>MARFIL BEIGE</t>
+  </si>
+  <si>
+    <t>NEGOR</t>
+  </si>
+  <si>
+    <t>TELOS</t>
   </si>
 </sst>
 </file>
@@ -498,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -508,6 +521,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,11 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +881,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -885,7 +901,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -945,7 +961,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -965,7 +981,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -1025,7 +1041,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1045,7 +1061,7 @@
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1085,7 +1101,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1105,7 +1121,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1125,7 +1141,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1145,7 +1161,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1165,7 +1181,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1185,7 +1201,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1205,7 +1221,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1225,7 +1241,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1245,7 +1261,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1265,7 +1281,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1285,7 +1301,7 @@
         <v>106000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1305,7 +1321,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1325,7 +1341,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1345,7 +1361,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1365,7 +1381,7 @@
         <v>113000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1385,7 +1401,7 @@
         <v>108000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1405,7 +1421,7 @@
         <v>113000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1425,7 +1441,7 @@
         <v>138000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1445,7 +1461,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1465,7 +1481,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1485,7 +1501,7 @@
         <v>148000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1505,7 +1521,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1525,7 +1541,7 @@
         <v>148000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1545,7 +1561,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1565,7 +1581,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1585,7 +1601,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1605,7 +1621,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1625,7 +1641,7 @@
         <v>141000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -1645,7 +1661,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1665,7 +1681,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -1685,7 +1701,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1705,7 +1721,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1725,7 +1741,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -1745,7 +1761,7 @@
         <v>173000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -1765,7 +1781,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -1785,7 +1801,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -1805,7 +1821,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -1825,7 +1841,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -1845,7 +1861,7 @@
         <v>98000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -1865,7 +1881,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -1885,7 +1901,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1905,7 +1921,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -1925,7 +1941,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -1945,7 +1961,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1965,7 +1981,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1985,7 +2001,7 @@
         <v>87000</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2005,7 +2021,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2025,7 +2041,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2085,7 +2101,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2105,7 +2121,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2125,7 +2141,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2145,7 +2161,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2165,7 +2181,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -2185,7 +2201,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2205,7 +2221,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -2225,7 +2241,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -2245,7 +2261,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>65</v>
       </c>
@@ -2265,7 +2281,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -2285,7 +2301,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -2305,7 +2321,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -2345,7 +2361,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -2365,7 +2381,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2405,7 +2421,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -2425,7 +2441,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -2445,7 +2461,7 @@
         <v>117000</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -2465,7 +2481,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -2485,7 +2501,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -2505,7 +2521,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2525,7 +2541,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -2545,7 +2561,7 @@
         <v>141000</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2565,7 +2581,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -2585,7 +2601,7 @@
         <v>138000</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>30</v>
       </c>
@@ -2605,7 +2621,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +2641,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2645,7 +2661,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -2665,7 +2681,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -2685,7 +2701,7 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -2705,7 +2721,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -2725,7 +2741,7 @@
         <v>153000</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -2745,7 +2761,7 @@
         <v>158000</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -2765,7 +2781,7 @@
         <v>194000</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -2785,7 +2801,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -2805,7 +2821,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -2825,7 +2841,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -2845,7 +2861,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -2865,7 +2881,7 @@
         <v>173000</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -2885,7 +2901,7 @@
         <v>209000</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -2905,7 +2921,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -2925,7 +2941,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -2945,7 +2961,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -2965,7 +2981,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -2985,7 +3001,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -3005,7 +3021,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -3025,7 +3041,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -3045,7 +3061,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -3065,7 +3081,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>30</v>
       </c>
@@ -3085,7 +3101,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -3105,7 +3121,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -3125,7 +3141,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -3145,7 +3161,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3165,7 +3181,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -3185,7 +3201,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>30</v>
       </c>
@@ -3205,7 +3221,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>30</v>
       </c>
@@ -3225,7 +3241,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -3245,7 +3261,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3265,7 +3281,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>30</v>
       </c>
@@ -3285,7 +3301,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>82</v>
       </c>
@@ -3305,7 +3321,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>82</v>
       </c>
@@ -3325,7 +3341,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>82</v>
       </c>
@@ -3345,7 +3361,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -3365,7 +3381,7 @@
         <v>28100</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>82</v>
       </c>
@@ -3385,7 +3401,7 @@
         <v>28100</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>82</v>
       </c>
@@ -3405,7 +3421,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>82</v>
       </c>
@@ -3425,7 +3441,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>82</v>
       </c>
@@ -3445,18 +3461,968 @@
         <v>390000</v>
       </c>
     </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" t="s">
+        <v>62</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>64000</v>
+      </c>
+    </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C138" s="1"/>
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>62</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>141</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>141</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>141</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>141</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>141</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>141</v>
+      </c>
+      <c r="B153" t="s">
+        <v>62</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="s">
+        <v>33</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>141</v>
+      </c>
+      <c r="B154" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>141</v>
+      </c>
+      <c r="B155" t="s">
+        <v>62</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>141</v>
+      </c>
+      <c r="B156" t="s">
+        <v>62</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>141</v>
+      </c>
+      <c r="B157" t="s">
+        <v>62</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>141</v>
+      </c>
+      <c r="B158" t="s">
+        <v>62</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>141</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>141</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>141</v>
+      </c>
+      <c r="B165" t="s">
+        <v>62</v>
+      </c>
+      <c r="C165" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166" t="s">
+        <v>62</v>
+      </c>
+      <c r="C166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>141</v>
+      </c>
+      <c r="B167" t="s">
+        <v>62</v>
+      </c>
+      <c r="C167" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>141</v>
+      </c>
+      <c r="B168" t="s">
+        <v>62</v>
+      </c>
+      <c r="C168" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" t="s">
+        <v>26</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>141</v>
+      </c>
+      <c r="B169" t="s">
+        <v>62</v>
+      </c>
+      <c r="C169" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>141</v>
+      </c>
+      <c r="B170" t="s">
+        <v>62</v>
+      </c>
+      <c r="C170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>141</v>
+      </c>
+      <c r="B171" t="s">
+        <v>62</v>
+      </c>
+      <c r="C171" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>141</v>
+      </c>
+      <c r="B172" t="s">
+        <v>62</v>
+      </c>
+      <c r="C172" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" t="s">
+        <v>29</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>141</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>22</v>
+      </c>
+      <c r="D173" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>141</v>
+      </c>
+      <c r="B174" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>141</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>141</v>
+      </c>
+      <c r="B176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" t="s">
+        <v>26</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>141</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" t="s">
+        <v>27</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>141</v>
+      </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>141</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>141</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>103000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F132">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="VYNYL PLUS"/>
-        <filter val="VYNYL PLUS 3 M"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3464,10 +4430,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,7 +4585,7 @@
     <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -3491,7 +4596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3502,7 +4607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3513,51 +4618,51 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3568,7 +4673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -3579,7 +4684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -3590,7 +4695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -3600,8 +4705,9 @@
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -3612,7 +4718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -3623,7 +4729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -3634,7 +4740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -3645,7 +4751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -3656,7 +4762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -3667,7 +4773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3678,7 +4784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -3689,7 +4795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -3700,7 +4806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -3711,7 +4817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -3719,10 +4825,11 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -3733,7 +4840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -3744,7 +4851,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -3755,7 +4862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -3763,10 +4870,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -3777,7 +4884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -3788,7 +4895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -3799,7 +4906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -3810,7 +4917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -3821,7 +4928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -3856,7 +4963,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>9</v>
@@ -3867,7 +4974,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
@@ -3878,18 +4985,18 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>9</v>
@@ -3900,7 +5007,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
@@ -3911,7 +5018,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
@@ -3922,7 +5029,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>31</v>
@@ -3933,7 +5040,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>31</v>
@@ -3944,7 +5051,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>31</v>
@@ -3955,7 +5062,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>31</v>
@@ -3966,7 +5073,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>13</v>
@@ -3977,7 +5084,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>13</v>
@@ -3988,7 +5095,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>13</v>
@@ -3999,7 +5106,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
@@ -4010,7 +5117,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>13</v>
@@ -4021,7 +5128,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>13</v>
@@ -4032,10 +5139,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>49</v>
@@ -4043,10 +5150,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>34</v>
@@ -4054,10 +5161,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>51</v>
@@ -4065,10 +5172,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>48</v>
@@ -4076,10 +5183,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>58</v>
@@ -4087,7 +5194,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>16</v>
@@ -4098,7 +5205,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>16</v>
@@ -4109,10 +5216,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>34</v>
@@ -4120,10 +5227,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>49</v>
@@ -4131,10 +5238,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>50</v>
@@ -4142,7 +5249,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>15</v>
@@ -4153,7 +5260,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -4164,13 +5271,13 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4178,7 +5285,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>34</v>
@@ -4189,7 +5296,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>56</v>
@@ -4200,7 +5307,7 @@
         <v>22</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>47</v>
@@ -4211,7 +5318,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>48</v>
@@ -4222,7 +5329,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>49</v>
@@ -4233,7 +5340,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>38</v>
@@ -4244,7 +5351,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>57</v>
@@ -4255,10 +5362,10 @@
         <v>22</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4266,7 +5373,7 @@
         <v>22</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>34</v>
@@ -4277,7 +5384,7 @@
         <v>22</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>35</v>
@@ -4288,7 +5395,7 @@
         <v>22</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>45</v>
@@ -4299,7 +5406,7 @@
         <v>22</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>46</v>
@@ -4310,10 +5417,10 @@
         <v>22</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4321,7 +5428,7 @@
         <v>22</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>47</v>
@@ -4581,13 +5688,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C100"/>
+  <autoFilter ref="A1:C100"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B92"/>
   <sheetViews>
@@ -5338,7 +6445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -5734,7 +6841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -5941,7 +7048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/DATOS PRODUCTO 1X1.xlsx
+++ b/DATOS PRODUCTO 1X1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="4260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="4260" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTOSUNO" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <t>CORONA</t>
   </si>
   <si>
-    <t>CORONA FORRADA</t>
-  </si>
-  <si>
     <t>idCover_Light</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>TELOS</t>
+  </si>
+  <si>
+    <t>FORRADO</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
         <v>62</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
         <v>62</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
         <v>62</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
         <v>62</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>62</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>62</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
         <v>62</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
         <v>62</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B145" t="s">
         <v>62</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B153" t="s">
         <v>62</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B154" t="s">
         <v>62</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B155" t="s">
         <v>62</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B156" t="s">
         <v>62</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B157" t="s">
         <v>62</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B158" t="s">
         <v>62</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B165" t="s">
         <v>62</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B166" t="s">
         <v>62</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B167" t="s">
         <v>62</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B168" t="s">
         <v>62</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B169" t="s">
         <v>62</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B170" t="s">
         <v>62</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B171" t="s">
         <v>62</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B172" t="s">
         <v>62</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -4444,10 +4444,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4471,7 +4471,7 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4503,7 +4503,7 @@
         <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4527,7 +4527,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4535,12 +4535,12 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
@@ -4548,18 +4548,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4587,7 +4587,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>63</v>
@@ -4623,7 +4623,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>38</v>
@@ -4634,7 +4634,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
@@ -4645,7 +4645,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>37</v>
@@ -4656,7 +4656,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>34</v>
@@ -4667,7 +4667,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>34</v>
@@ -4678,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -4689,7 +4689,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -4700,7 +4700,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
@@ -4712,7 +4712,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>51</v>
@@ -4723,7 +4723,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -4734,7 +4734,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>34</v>
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>51</v>
@@ -4756,7 +4756,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>42</v>
@@ -4825,7 +4825,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -4870,7 +4870,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4963,7 +4963,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>9</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
@@ -4985,18 +4985,18 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>9</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>31</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>31</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>31</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>31</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>13</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>13</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>13</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>13</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>13</v>
@@ -5139,10 +5139,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>49</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>34</v>
@@ -5161,10 +5161,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>51</v>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>48</v>
@@ -5183,10 +5183,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>58</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>16</v>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>16</v>
@@ -5216,10 +5216,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>34</v>
@@ -5227,10 +5227,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>49</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>50</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>15</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -5271,13 +5271,13 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5285,7 +5285,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>34</v>
@@ -5296,7 +5296,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>56</v>
@@ -5307,7 +5307,7 @@
         <v>22</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>47</v>
@@ -5318,7 +5318,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>48</v>
@@ -5329,7 +5329,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>49</v>
@@ -5340,7 +5340,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>38</v>
@@ -5351,7 +5351,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>57</v>
@@ -5362,10 +5362,10 @@
         <v>22</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5373,7 +5373,7 @@
         <v>22</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>34</v>
@@ -5384,7 +5384,7 @@
         <v>22</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>35</v>
@@ -5395,7 +5395,7 @@
         <v>22</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>45</v>
@@ -5406,7 +5406,7 @@
         <v>22</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>46</v>
@@ -5417,10 +5417,10 @@
         <v>22</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5428,7 +5428,7 @@
         <v>22</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>47</v>
@@ -5809,7 +5809,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5889,7 +5889,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5929,7 +5929,7 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -6097,7 +6097,7 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -6161,7 +6161,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -6843,10 +6843,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6993,7 +6993,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
@@ -7004,7 +7004,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -7015,7 +7015,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>111</v>
@@ -7026,25 +7026,29 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7067,19 +7071,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7087,16 +7091,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
       </c>
       <c r="D2">
         <v>18000</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
